--- a/Code/Results/Cases/Case_4_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002166997454914</v>
+        <v>1.037520936406501</v>
       </c>
       <c r="D2">
-        <v>1.018456607250454</v>
+        <v>1.038022481527427</v>
       </c>
       <c r="E2">
-        <v>1.019328238448824</v>
+        <v>1.050988746968421</v>
       </c>
       <c r="F2">
-        <v>1.025041464185014</v>
+        <v>1.058247659740094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04324096891762</v>
+        <v>1.034808401007407</v>
       </c>
       <c r="J2">
-        <v>1.024283086621207</v>
+        <v>1.042623357493824</v>
       </c>
       <c r="K2">
-        <v>1.029664663815254</v>
+        <v>1.04081169903153</v>
       </c>
       <c r="L2">
-        <v>1.030524710610453</v>
+        <v>1.053741495435823</v>
       </c>
       <c r="M2">
-        <v>1.036162616072252</v>
+        <v>1.06098041446597</v>
       </c>
       <c r="N2">
-        <v>1.025737686091122</v>
+        <v>1.044104002252036</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00717437581552</v>
+        <v>1.038579583786722</v>
       </c>
       <c r="D3">
-        <v>1.021953157887158</v>
+        <v>1.038774347677602</v>
       </c>
       <c r="E3">
-        <v>1.023983350241414</v>
+        <v>1.052031534457275</v>
       </c>
       <c r="F3">
-        <v>1.029982154322295</v>
+        <v>1.05935729717615</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044390046975249</v>
+        <v>1.034986048911102</v>
       </c>
       <c r="J3">
-        <v>1.027471352650406</v>
+        <v>1.043325869883406</v>
       </c>
       <c r="K3">
-        <v>1.032312642928708</v>
+        <v>1.041373646636141</v>
       </c>
       <c r="L3">
-        <v>1.034318287457879</v>
+        <v>1.054596246794427</v>
       </c>
       <c r="M3">
-        <v>1.040245258626643</v>
+        <v>1.061903297771505</v>
       </c>
       <c r="N3">
-        <v>1.028930479823781</v>
+        <v>1.044807512289791</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010344594585612</v>
+        <v>1.039264891991229</v>
       </c>
       <c r="D4">
-        <v>1.024169029137265</v>
+        <v>1.039260874552283</v>
       </c>
       <c r="E4">
-        <v>1.026936120355333</v>
+        <v>1.052706933106319</v>
       </c>
       <c r="F4">
-        <v>1.033115846652906</v>
+        <v>1.060075995463201</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045106822330599</v>
+        <v>1.035099683966695</v>
       </c>
       <c r="J4">
-        <v>1.029487335751625</v>
+        <v>1.043780164854523</v>
       </c>
       <c r="K4">
-        <v>1.033984250336177</v>
+        <v>1.041736620706805</v>
       </c>
       <c r="L4">
-        <v>1.036719966293482</v>
+        <v>1.055149369150278</v>
       </c>
       <c r="M4">
-        <v>1.042830369155429</v>
+        <v>1.062500561331421</v>
       </c>
       <c r="N4">
-        <v>1.03094932585224</v>
+        <v>1.045262452411875</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011661278229049</v>
+        <v>1.039553065630867</v>
       </c>
       <c r="D5">
-        <v>1.025089796176946</v>
+        <v>1.039465414258577</v>
       </c>
       <c r="E5">
-        <v>1.028163789252519</v>
+        <v>1.052991024829326</v>
       </c>
       <c r="F5">
-        <v>1.034418689608751</v>
+        <v>1.06037830078217</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045401903863319</v>
+        <v>1.03514714103058</v>
       </c>
       <c r="J5">
-        <v>1.030323984053658</v>
+        <v>1.043971083695989</v>
       </c>
       <c r="K5">
-        <v>1.034677301259469</v>
+        <v>1.041889060443896</v>
       </c>
       <c r="L5">
-        <v>1.037717395534123</v>
+        <v>1.055381911281308</v>
       </c>
       <c r="M5">
-        <v>1.043904082374379</v>
+        <v>1.062751673669821</v>
       </c>
       <c r="N5">
-        <v>1.031787162290827</v>
+        <v>1.045453642379994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011881430870723</v>
+        <v>1.039601455362971</v>
       </c>
       <c r="D6">
-        <v>1.025243775191202</v>
+        <v>1.039499757575667</v>
       </c>
       <c r="E6">
-        <v>1.028369133606385</v>
+        <v>1.053038734106943</v>
       </c>
       <c r="F6">
-        <v>1.034636605203154</v>
+        <v>1.060429068816359</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04545108712844</v>
+        <v>1.035155090793446</v>
       </c>
       <c r="J6">
-        <v>1.030463834453014</v>
+        <v>1.044003135885041</v>
       </c>
       <c r="K6">
-        <v>1.03479310806728</v>
+        <v>1.04191464666893</v>
       </c>
       <c r="L6">
-        <v>1.0378841635478</v>
+        <v>1.055420956675171</v>
       </c>
       <c r="M6">
-        <v>1.044083611054466</v>
+        <v>1.062793837860261</v>
       </c>
       <c r="N6">
-        <v>1.031927211293791</v>
+        <v>1.045485740086831</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01036225050446</v>
+        <v>1.039268742306127</v>
       </c>
       <c r="D7">
-        <v>1.024181374363345</v>
+        <v>1.039263607607879</v>
       </c>
       <c r="E7">
-        <v>1.026952577563354</v>
+        <v>1.052710728548672</v>
       </c>
       <c r="F7">
-        <v>1.033133311769133</v>
+        <v>1.060080034235446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045110789587379</v>
+        <v>1.035100319328854</v>
       </c>
       <c r="J7">
-        <v>1.029498557301469</v>
+        <v>1.043782716184172</v>
       </c>
       <c r="K7">
-        <v>1.033993548595016</v>
+        <v>1.041738658221962</v>
       </c>
       <c r="L7">
-        <v>1.036733341486531</v>
+        <v>1.055152476352738</v>
       </c>
       <c r="M7">
-        <v>1.042844766878737</v>
+        <v>1.062503916617842</v>
       </c>
       <c r="N7">
-        <v>1.030960563337972</v>
+        <v>1.045265007364704</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00387414190979</v>
+        <v>1.037878650686493</v>
       </c>
       <c r="D8">
-        <v>1.019648172359737</v>
+        <v>1.038276573764273</v>
       </c>
       <c r="E8">
-        <v>1.020914091360484</v>
+        <v>1.051341028014773</v>
       </c>
       <c r="F8">
-        <v>1.026724654863038</v>
+        <v>1.058622524127461</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043634940752717</v>
+        <v>1.034868710053213</v>
       </c>
       <c r="J8">
-        <v>1.025370557326495</v>
+        <v>1.042860832111682</v>
       </c>
       <c r="K8">
-        <v>1.030568414713094</v>
+        <v>1.041001744828907</v>
       </c>
       <c r="L8">
-        <v>1.031818028326528</v>
+        <v>1.054030353950618</v>
       </c>
       <c r="M8">
-        <v>1.037554394249775</v>
+        <v>1.061292287052138</v>
       </c>
       <c r="N8">
-        <v>1.026826701129545</v>
+        <v>1.04434181411109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9918745765209744</v>
+        <v>1.035431370558803</v>
       </c>
       <c r="D9">
-        <v>1.011284878477889</v>
+        <v>1.036537475596241</v>
       </c>
       <c r="E9">
-        <v>1.009792546542672</v>
+        <v>1.048932400348085</v>
       </c>
       <c r="F9">
-        <v>1.014919300722307</v>
+        <v>1.056059492770952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040821992568079</v>
+        <v>1.034450526428367</v>
       </c>
       <c r="J9">
-        <v>1.017717563715844</v>
+        <v>1.041234243209691</v>
       </c>
       <c r="K9">
-        <v>1.024197481736522</v>
+        <v>1.039698301055736</v>
       </c>
       <c r="L9">
-        <v>1.022728719608734</v>
+        <v>1.052053360176231</v>
       </c>
       <c r="M9">
-        <v>1.027774872881307</v>
+        <v>1.059157993074377</v>
       </c>
       <c r="N9">
-        <v>1.019162839390157</v>
+        <v>1.042712915266286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9834466482958452</v>
+        <v>1.03380135047047</v>
       </c>
       <c r="D10">
-        <v>1.005430013911113</v>
+        <v>1.035378243899118</v>
       </c>
       <c r="E10">
-        <v>1.002015784605397</v>
+        <v>1.04733000308724</v>
       </c>
       <c r="F10">
-        <v>1.006662601049731</v>
+        <v>1.054354375627253</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038792823176666</v>
+        <v>1.034164991376717</v>
       </c>
       <c r="J10">
-        <v>1.012332778746441</v>
+        <v>1.040148448168418</v>
       </c>
       <c r="K10">
-        <v>1.019701915040438</v>
+        <v>1.038826065406603</v>
       </c>
       <c r="L10">
-        <v>1.016348738570464</v>
+        <v>1.050735603379658</v>
       </c>
       <c r="M10">
-        <v>1.020912593216232</v>
+        <v>1.057735652920729</v>
       </c>
       <c r="N10">
-        <v>1.013770407408454</v>
+        <v>1.041625578271512</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9796841028574242</v>
+        <v>1.033095887457372</v>
       </c>
       <c r="D11">
-        <v>1.002821927477211</v>
+        <v>1.034876332393335</v>
       </c>
       <c r="E11">
-        <v>0.9985528549614751</v>
+        <v>1.046636946436279</v>
       </c>
       <c r="F11">
-        <v>1.002985440269237</v>
+        <v>1.053616890296122</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037874946269996</v>
+        <v>1.034039754790254</v>
       </c>
       <c r="J11">
-        <v>1.009927169546045</v>
+        <v>1.039677957284567</v>
       </c>
       <c r="K11">
-        <v>1.017690821876084</v>
+        <v>1.038447606576169</v>
       </c>
       <c r="L11">
-        <v>1.013502114017439</v>
+        <v>1.050165059855922</v>
       </c>
       <c r="M11">
-        <v>1.017851274321805</v>
+        <v>1.05711989064174</v>
       </c>
       <c r="N11">
-        <v>1.011361381967067</v>
+        <v>1.04115441923664</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9782684393851626</v>
+        <v>1.032833898844159</v>
       </c>
       <c r="D12">
-        <v>1.001841603667027</v>
+        <v>1.034689907306745</v>
       </c>
       <c r="E12">
-        <v>0.9972513276598006</v>
+        <v>1.046379633499904</v>
       </c>
       <c r="F12">
-        <v>1.001603308550173</v>
+        <v>1.053343081944</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037527857682914</v>
+        <v>1.033992996481444</v>
       </c>
       <c r="J12">
-        <v>1.009021868983996</v>
+        <v>1.039503145934031</v>
       </c>
       <c r="K12">
-        <v>1.016933606302669</v>
+        <v>1.038306914025243</v>
       </c>
       <c r="L12">
-        <v>1.012431378037748</v>
+        <v>1.049953142835562</v>
       </c>
       <c r="M12">
-        <v>1.016699856027515</v>
+        <v>1.056891187331751</v>
       </c>
       <c r="N12">
-        <v>1.010454795774379</v>
+        <v>1.040979359633935</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9785729407656111</v>
+        <v>1.032890093953347</v>
       </c>
       <c r="D13">
-        <v>1.002052420132176</v>
+        <v>1.03472989578446</v>
       </c>
       <c r="E13">
-        <v>0.9975312143859857</v>
+        <v>1.046434822602938</v>
       </c>
       <c r="F13">
-        <v>1.001900532894522</v>
+        <v>1.053401809037501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037602591880579</v>
+        <v>1.034003037148226</v>
       </c>
       <c r="J13">
-        <v>1.009216601553161</v>
+        <v>1.03954064582609</v>
       </c>
       <c r="K13">
-        <v>1.017096502225735</v>
+        <v>1.038337098302719</v>
       </c>
       <c r="L13">
-        <v>1.012661672303026</v>
+        <v>1.049998599380058</v>
       </c>
       <c r="M13">
-        <v>1.016947500184819</v>
+        <v>1.056940244141624</v>
       </c>
       <c r="N13">
-        <v>1.010649804886129</v>
+        <v>1.041016912780142</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9795674591891516</v>
+        <v>1.033074230342627</v>
       </c>
       <c r="D14">
-        <v>1.002741133228654</v>
+        <v>1.034860922286928</v>
       </c>
       <c r="E14">
-        <v>0.9984455865983901</v>
+        <v>1.046615674436754</v>
       </c>
       <c r="F14">
-        <v>1.002871530518595</v>
+        <v>1.053594254630492</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037846382780209</v>
+        <v>1.034035894625743</v>
       </c>
       <c r="J14">
-        <v>1.009852580689279</v>
+        <v>1.03966350834463</v>
       </c>
       <c r="K14">
-        <v>1.017628441540799</v>
+        <v>1.038435979252203</v>
       </c>
       <c r="L14">
-        <v>1.013413883967154</v>
+        <v>1.050147542559754</v>
       </c>
       <c r="M14">
-        <v>1.017756394461723</v>
+        <v>1.057100985582407</v>
       </c>
       <c r="N14">
-        <v>1.011286687185568</v>
+        <v>1.041139949777551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9801777843827841</v>
+        <v>1.033187689699567</v>
       </c>
       <c r="D15">
-        <v>1.003163920562924</v>
+        <v>1.034941653012655</v>
       </c>
       <c r="E15">
-        <v>0.9990069141957066</v>
+        <v>1.04672711901607</v>
       </c>
       <c r="F15">
-        <v>1.003467608436739</v>
+        <v>1.053712843481851</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037995767766484</v>
+        <v>1.034056107424332</v>
       </c>
       <c r="J15">
-        <v>1.010242851465181</v>
+        <v>1.039739201365049</v>
       </c>
       <c r="K15">
-        <v>1.017954818324892</v>
+        <v>1.038496887696041</v>
       </c>
       <c r="L15">
-        <v>1.013875551081104</v>
+        <v>1.050239312466102</v>
       </c>
       <c r="M15">
-        <v>1.018252859938289</v>
+        <v>1.05720002610709</v>
       </c>
       <c r="N15">
-        <v>1.011677512190736</v>
+        <v>1.041215750290741</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9836938808944851</v>
+        <v>1.033848177001677</v>
       </c>
       <c r="D16">
-        <v>1.005601516993708</v>
+        <v>1.035411555085265</v>
       </c>
       <c r="E16">
-        <v>1.002243520752469</v>
+        <v>1.047376015675377</v>
       </c>
       <c r="F16">
-        <v>1.006904414371215</v>
+        <v>1.054403337839825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038852891823787</v>
+        <v>1.034173269266773</v>
       </c>
       <c r="J16">
-        <v>1.012490819469412</v>
+        <v>1.040179666065844</v>
       </c>
       <c r="K16">
-        <v>1.019833982769331</v>
+        <v>1.038851166173483</v>
       </c>
       <c r="L16">
-        <v>1.016535826525716</v>
+        <v>1.050773469622367</v>
       </c>
       <c r="M16">
-        <v>1.021113801710688</v>
+        <v>1.057776521582771</v>
       </c>
       <c r="N16">
-        <v>1.013928672567379</v>
+        <v>1.041656840501933</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9858683936859766</v>
+        <v>1.034262575784046</v>
       </c>
       <c r="D17">
-        <v>1.00711062327109</v>
+        <v>1.035706324347639</v>
       </c>
       <c r="E17">
-        <v>1.004247574705675</v>
+        <v>1.047783263558617</v>
       </c>
       <c r="F17">
-        <v>1.009032285920757</v>
+        <v>1.054836692102062</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039379866162009</v>
+        <v>1.034246334114068</v>
       </c>
       <c r="J17">
-        <v>1.013880673621972</v>
+        <v>1.040455868503853</v>
       </c>
       <c r="K17">
-        <v>1.020995115681364</v>
+        <v>1.039073188450043</v>
       </c>
       <c r="L17">
-        <v>1.018181536191776</v>
+        <v>1.051108546824596</v>
       </c>
       <c r="M17">
-        <v>1.022883778418262</v>
+        <v>1.058138174287472</v>
       </c>
       <c r="N17">
-        <v>1.015320500472254</v>
+        <v>1.041933435179084</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871259057505845</v>
+        <v>1.034504321028451</v>
       </c>
       <c r="D18">
-        <v>1.007983870293433</v>
+        <v>1.035878262420985</v>
       </c>
       <c r="E18">
-        <v>1.005407350677886</v>
+        <v>1.048020880756945</v>
       </c>
       <c r="F18">
-        <v>1.01026366836031</v>
+        <v>1.055089541511808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039683474117552</v>
+        <v>1.034288797402249</v>
       </c>
       <c r="J18">
-        <v>1.014684261479929</v>
+        <v>1.040616940430933</v>
       </c>
       <c r="K18">
-        <v>1.021666200251218</v>
+        <v>1.039202615484162</v>
       </c>
       <c r="L18">
-        <v>1.019133394452312</v>
+        <v>1.051303996874296</v>
       </c>
       <c r="M18">
-        <v>1.023907558503815</v>
+        <v>1.058349131798872</v>
       </c>
       <c r="N18">
-        <v>1.016125229517142</v>
+        <v>1.042094735846776</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9875528768530295</v>
+        <v>1.034586755591338</v>
       </c>
       <c r="D19">
-        <v>1.008280457346611</v>
+        <v>1.035936889544366</v>
       </c>
       <c r="E19">
-        <v>1.005801277323976</v>
+        <v>1.048101915033912</v>
       </c>
       <c r="F19">
-        <v>1.010681908683916</v>
+        <v>1.055175770396637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03978636498028</v>
+        <v>1.034303250124289</v>
       </c>
       <c r="J19">
-        <v>1.014957080063921</v>
+        <v>1.040671856315089</v>
       </c>
       <c r="K19">
-        <v>1.021893988811575</v>
+        <v>1.039246734059477</v>
       </c>
       <c r="L19">
-        <v>1.019456608712462</v>
+        <v>1.051370641165417</v>
       </c>
       <c r="M19">
-        <v>1.024255202702451</v>
+        <v>1.058421064823542</v>
       </c>
       <c r="N19">
-        <v>1.016398435534816</v>
+        <v>1.042149729717787</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9856362182645628</v>
+        <v>1.03421811125904</v>
       </c>
       <c r="D20">
-        <v>1.006949437651849</v>
+        <v>1.035674697961373</v>
       </c>
       <c r="E20">
-        <v>1.004033511797358</v>
+        <v>1.047739561811265</v>
       </c>
       <c r="F20">
-        <v>1.008805002547776</v>
+        <v>1.054790188891261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039323718240051</v>
+        <v>1.034238510895551</v>
       </c>
       <c r="J20">
-        <v>1.013732293287596</v>
+        <v>1.04042623793404</v>
       </c>
       <c r="K20">
-        <v>1.020871180428762</v>
+        <v>1.039049375295646</v>
       </c>
       <c r="L20">
-        <v>1.01800580562516</v>
+        <v>1.051072595674239</v>
       </c>
       <c r="M20">
-        <v>1.022694773592473</v>
+        <v>1.058099371173259</v>
       </c>
       <c r="N20">
-        <v>1.015171909420783</v>
+        <v>1.041903762530464</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9792751066930782</v>
+        <v>1.03302000533891</v>
       </c>
       <c r="D21">
-        <v>1.002538648784022</v>
+        <v>1.034822338043782</v>
       </c>
       <c r="E21">
-        <v>0.9981767549751231</v>
+        <v>1.046562414788373</v>
       </c>
       <c r="F21">
-        <v>1.002586053094517</v>
+        <v>1.053537580706183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03777476429768</v>
+        <v>1.034026225537219</v>
       </c>
       <c r="J21">
-        <v>1.009665630428063</v>
+        <v>1.039627329776544</v>
       </c>
       <c r="K21">
-        <v>1.017472084773205</v>
+        <v>1.038406864478971</v>
       </c>
       <c r="L21">
-        <v>1.013192751817637</v>
+        <v>1.050103682276709</v>
       </c>
       <c r="M21">
-        <v>1.017518596981068</v>
+        <v>1.057053650730534</v>
       </c>
       <c r="N21">
-        <v>1.011099471433537</v>
+        <v>1.041103719831748</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9751703795284189</v>
+        <v>1.032267007925574</v>
       </c>
       <c r="D22">
-        <v>0.9996981637119056</v>
+        <v>1.034286467484786</v>
       </c>
       <c r="E22">
-        <v>0.9944057079216628</v>
+        <v>1.045822985261584</v>
       </c>
       <c r="F22">
-        <v>0.9985812886530478</v>
+        <v>1.052750748371074</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036765162973802</v>
+        <v>1.033891365635269</v>
       </c>
       <c r="J22">
-        <v>1.007040421139454</v>
+        <v>1.039124734798831</v>
       </c>
       <c r="K22">
-        <v>1.015275602410431</v>
+        <v>1.038002220937599</v>
       </c>
       <c r="L22">
-        <v>1.010088809460493</v>
+        <v>1.04949453576515</v>
       </c>
       <c r="M22">
-        <v>1.014180902980202</v>
+        <v>1.056396270248946</v>
       </c>
       <c r="N22">
-        <v>1.008470534046623</v>
+        <v>1.040600411111518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9773567330193266</v>
+        <v>1.032666157823615</v>
       </c>
       <c r="D23">
-        <v>1.001210550238487</v>
+        <v>1.034570538409468</v>
       </c>
       <c r="E23">
-        <v>0.9964135312344565</v>
+        <v>1.046214905423532</v>
       </c>
       <c r="F23">
-        <v>1.000713601346591</v>
+        <v>1.053167793649846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037303846992094</v>
+        <v>1.033962988882182</v>
       </c>
       <c r="J23">
-        <v>1.008438798435846</v>
+        <v>1.039391197312708</v>
       </c>
       <c r="K23">
-        <v>1.016445807532918</v>
+        <v>1.038216793667447</v>
       </c>
       <c r="L23">
-        <v>1.011741905634509</v>
+        <v>1.049817451273433</v>
       </c>
       <c r="M23">
-        <v>1.015958450834426</v>
+        <v>1.056744750039577</v>
       </c>
       <c r="N23">
-        <v>1.009870897199171</v>
+        <v>1.040867252032729</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9857411617769017</v>
+        <v>1.034238202760407</v>
       </c>
       <c r="D24">
-        <v>1.007022292048848</v>
+        <v>1.035688988551166</v>
       </c>
       <c r="E24">
-        <v>1.004130265837549</v>
+        <v>1.047759308513616</v>
       </c>
       <c r="F24">
-        <v>1.008907732240236</v>
+        <v>1.054811201439493</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039349100692421</v>
+        <v>1.034242046347694</v>
       </c>
       <c r="J24">
-        <v>1.013799361838909</v>
+        <v>1.040439626812772</v>
       </c>
       <c r="K24">
-        <v>1.020927200509051</v>
+        <v>1.039060135666185</v>
       </c>
       <c r="L24">
-        <v>1.018085235545924</v>
+        <v>1.051088840435465</v>
       </c>
       <c r="M24">
-        <v>1.022780203309286</v>
+        <v>1.058116904594338</v>
       </c>
       <c r="N24">
-        <v>1.015239073217132</v>
+        <v>1.041917170422939</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.995048555544356</v>
+        <v>1.036063786371205</v>
       </c>
       <c r="D25">
-        <v>1.01349412524246</v>
+        <v>1.036987047997426</v>
       </c>
       <c r="E25">
-        <v>1.012728576808984</v>
+        <v>1.049554498541121</v>
       </c>
       <c r="F25">
-        <v>1.018036130306188</v>
+        <v>1.056721469627842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041575463028771</v>
+        <v>1.03455982717472</v>
       </c>
       <c r="J25">
-        <v>1.019743712332198</v>
+        <v>1.041655003876937</v>
       </c>
       <c r="K25">
-        <v>1.025886512563252</v>
+        <v>1.040035851393672</v>
       </c>
       <c r="L25">
-        <v>1.025132459936524</v>
+        <v>1.052564419619012</v>
       </c>
       <c r="M25">
-        <v>1.030360764907344</v>
+        <v>1.059709668369984</v>
       </c>
       <c r="N25">
-        <v>1.021191865369949</v>
+        <v>1.043134273461941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037520936406501</v>
+        <v>1.002166997454914</v>
       </c>
       <c r="D2">
-        <v>1.038022481527427</v>
+        <v>1.018456607250454</v>
       </c>
       <c r="E2">
-        <v>1.050988746968421</v>
+        <v>1.019328238448824</v>
       </c>
       <c r="F2">
-        <v>1.058247659740094</v>
+        <v>1.025041464185014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034808401007407</v>
+        <v>1.04324096891762</v>
       </c>
       <c r="J2">
-        <v>1.042623357493824</v>
+        <v>1.024283086621207</v>
       </c>
       <c r="K2">
-        <v>1.04081169903153</v>
+        <v>1.029664663815255</v>
       </c>
       <c r="L2">
-        <v>1.053741495435823</v>
+        <v>1.030524710610453</v>
       </c>
       <c r="M2">
-        <v>1.06098041446597</v>
+        <v>1.036162616072252</v>
       </c>
       <c r="N2">
-        <v>1.044104002252036</v>
+        <v>1.025737686091122</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038579583786722</v>
+        <v>1.00717437581552</v>
       </c>
       <c r="D3">
-        <v>1.038774347677602</v>
+        <v>1.021953157887158</v>
       </c>
       <c r="E3">
-        <v>1.052031534457275</v>
+        <v>1.023983350241414</v>
       </c>
       <c r="F3">
-        <v>1.05935729717615</v>
+        <v>1.029982154322294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034986048911102</v>
+        <v>1.044390046975249</v>
       </c>
       <c r="J3">
-        <v>1.043325869883406</v>
+        <v>1.027471352650406</v>
       </c>
       <c r="K3">
-        <v>1.041373646636141</v>
+        <v>1.032312642928708</v>
       </c>
       <c r="L3">
-        <v>1.054596246794427</v>
+        <v>1.034318287457879</v>
       </c>
       <c r="M3">
-        <v>1.061903297771505</v>
+        <v>1.040245258626643</v>
       </c>
       <c r="N3">
-        <v>1.044807512289791</v>
+        <v>1.028930479823781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039264891991229</v>
+        <v>1.010344594585613</v>
       </c>
       <c r="D4">
-        <v>1.039260874552283</v>
+        <v>1.024169029137266</v>
       </c>
       <c r="E4">
-        <v>1.052706933106319</v>
+        <v>1.026936120355334</v>
       </c>
       <c r="F4">
-        <v>1.060075995463201</v>
+        <v>1.033115846652907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035099683966695</v>
+        <v>1.0451068223306</v>
       </c>
       <c r="J4">
-        <v>1.043780164854523</v>
+        <v>1.029487335751626</v>
       </c>
       <c r="K4">
-        <v>1.041736620706805</v>
+        <v>1.033984250336178</v>
       </c>
       <c r="L4">
-        <v>1.055149369150278</v>
+        <v>1.036719966293483</v>
       </c>
       <c r="M4">
-        <v>1.062500561331421</v>
+        <v>1.04283036915543</v>
       </c>
       <c r="N4">
-        <v>1.045262452411875</v>
+        <v>1.030949325852241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039553065630867</v>
+        <v>1.01166127822905</v>
       </c>
       <c r="D5">
-        <v>1.039465414258577</v>
+        <v>1.025089796176947</v>
       </c>
       <c r="E5">
-        <v>1.052991024829326</v>
+        <v>1.028163789252521</v>
       </c>
       <c r="F5">
-        <v>1.06037830078217</v>
+        <v>1.034418689608752</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03514714103058</v>
+        <v>1.045401903863319</v>
       </c>
       <c r="J5">
-        <v>1.043971083695989</v>
+        <v>1.030323984053659</v>
       </c>
       <c r="K5">
-        <v>1.041889060443896</v>
+        <v>1.03467730125947</v>
       </c>
       <c r="L5">
-        <v>1.055381911281308</v>
+        <v>1.037717395534125</v>
       </c>
       <c r="M5">
-        <v>1.062751673669821</v>
+        <v>1.04390408237438</v>
       </c>
       <c r="N5">
-        <v>1.045453642379994</v>
+        <v>1.031787162290828</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039601455362971</v>
+        <v>1.011881430870722</v>
       </c>
       <c r="D6">
-        <v>1.039499757575667</v>
+        <v>1.025243775191201</v>
       </c>
       <c r="E6">
-        <v>1.053038734106943</v>
+        <v>1.028369133606384</v>
       </c>
       <c r="F6">
-        <v>1.060429068816359</v>
+        <v>1.034636605203154</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035155090793446</v>
+        <v>1.045451087128439</v>
       </c>
       <c r="J6">
-        <v>1.044003135885041</v>
+        <v>1.030463834453013</v>
       </c>
       <c r="K6">
-        <v>1.04191464666893</v>
+        <v>1.034793108067278</v>
       </c>
       <c r="L6">
-        <v>1.055420956675171</v>
+        <v>1.0378841635478</v>
       </c>
       <c r="M6">
-        <v>1.062793837860261</v>
+        <v>1.044083611054465</v>
       </c>
       <c r="N6">
-        <v>1.045485740086831</v>
+        <v>1.03192721129379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039268742306127</v>
+        <v>1.01036225050446</v>
       </c>
       <c r="D7">
-        <v>1.039263607607879</v>
+        <v>1.024181374363345</v>
       </c>
       <c r="E7">
-        <v>1.052710728548672</v>
+        <v>1.026952577563353</v>
       </c>
       <c r="F7">
-        <v>1.060080034235446</v>
+        <v>1.033133311769132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035100319328854</v>
+        <v>1.045110789587379</v>
       </c>
       <c r="J7">
-        <v>1.043782716184172</v>
+        <v>1.029498557301468</v>
       </c>
       <c r="K7">
-        <v>1.041738658221962</v>
+        <v>1.033993548595015</v>
       </c>
       <c r="L7">
-        <v>1.055152476352738</v>
+        <v>1.03673334148653</v>
       </c>
       <c r="M7">
-        <v>1.062503916617842</v>
+        <v>1.042844766878736</v>
       </c>
       <c r="N7">
-        <v>1.045265007364704</v>
+        <v>1.030960563337971</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037878650686493</v>
+        <v>1.00387414190979</v>
       </c>
       <c r="D8">
-        <v>1.038276573764273</v>
+        <v>1.019648172359738</v>
       </c>
       <c r="E8">
-        <v>1.051341028014773</v>
+        <v>1.020914091360485</v>
       </c>
       <c r="F8">
-        <v>1.058622524127461</v>
+        <v>1.026724654863038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034868710053213</v>
+        <v>1.043634940752717</v>
       </c>
       <c r="J8">
-        <v>1.042860832111682</v>
+        <v>1.025370557326495</v>
       </c>
       <c r="K8">
-        <v>1.041001744828907</v>
+        <v>1.030568414713095</v>
       </c>
       <c r="L8">
-        <v>1.054030353950618</v>
+        <v>1.031818028326529</v>
       </c>
       <c r="M8">
-        <v>1.061292287052138</v>
+        <v>1.037554394249776</v>
       </c>
       <c r="N8">
-        <v>1.04434181411109</v>
+        <v>1.026826701129546</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035431370558803</v>
+        <v>0.991874576520973</v>
       </c>
       <c r="D9">
-        <v>1.036537475596241</v>
+        <v>1.011284878477888</v>
       </c>
       <c r="E9">
-        <v>1.048932400348085</v>
+        <v>1.00979254654267</v>
       </c>
       <c r="F9">
-        <v>1.056059492770952</v>
+        <v>1.014919300722305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034450526428367</v>
+        <v>1.040821992568079</v>
       </c>
       <c r="J9">
-        <v>1.041234243209691</v>
+        <v>1.017717563715843</v>
       </c>
       <c r="K9">
-        <v>1.039698301055736</v>
+        <v>1.024197481736521</v>
       </c>
       <c r="L9">
-        <v>1.052053360176231</v>
+        <v>1.022728719608732</v>
       </c>
       <c r="M9">
-        <v>1.059157993074377</v>
+        <v>1.027774872881306</v>
       </c>
       <c r="N9">
-        <v>1.042712915266286</v>
+        <v>1.019162839390156</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03380135047047</v>
+        <v>0.983446648295845</v>
       </c>
       <c r="D10">
-        <v>1.035378243899118</v>
+        <v>1.005430013911113</v>
       </c>
       <c r="E10">
-        <v>1.04733000308724</v>
+        <v>1.002015784605397</v>
       </c>
       <c r="F10">
-        <v>1.054354375627253</v>
+        <v>1.006662601049731</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034164991376717</v>
+        <v>1.038792823176666</v>
       </c>
       <c r="J10">
-        <v>1.040148448168418</v>
+        <v>1.012332778746441</v>
       </c>
       <c r="K10">
-        <v>1.038826065406603</v>
+        <v>1.019701915040438</v>
       </c>
       <c r="L10">
-        <v>1.050735603379658</v>
+        <v>1.016348738570463</v>
       </c>
       <c r="M10">
-        <v>1.057735652920729</v>
+        <v>1.020912593216232</v>
       </c>
       <c r="N10">
-        <v>1.041625578271512</v>
+        <v>1.013770407408454</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033095887457372</v>
+        <v>0.9796841028574239</v>
       </c>
       <c r="D11">
-        <v>1.034876332393335</v>
+        <v>1.00282192747721</v>
       </c>
       <c r="E11">
-        <v>1.046636946436279</v>
+        <v>0.9985528549614744</v>
       </c>
       <c r="F11">
-        <v>1.053616890296122</v>
+        <v>1.002985440269237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034039754790254</v>
+        <v>1.037874946269996</v>
       </c>
       <c r="J11">
-        <v>1.039677957284567</v>
+        <v>1.009927169546045</v>
       </c>
       <c r="K11">
-        <v>1.038447606576169</v>
+        <v>1.017690821876083</v>
       </c>
       <c r="L11">
-        <v>1.050165059855922</v>
+        <v>1.013502114017439</v>
       </c>
       <c r="M11">
-        <v>1.05711989064174</v>
+        <v>1.017851274321805</v>
       </c>
       <c r="N11">
-        <v>1.04115441923664</v>
+        <v>1.011361381967066</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032833898844159</v>
+        <v>0.9782684393851632</v>
       </c>
       <c r="D12">
-        <v>1.034689907306745</v>
+        <v>1.001841603667028</v>
       </c>
       <c r="E12">
-        <v>1.046379633499904</v>
+        <v>0.9972513276598015</v>
       </c>
       <c r="F12">
-        <v>1.053343081944</v>
+        <v>1.001603308550174</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033992996481444</v>
+        <v>1.037527857682914</v>
       </c>
       <c r="J12">
-        <v>1.039503145934031</v>
+        <v>1.009021868983996</v>
       </c>
       <c r="K12">
-        <v>1.038306914025243</v>
+        <v>1.01693360630267</v>
       </c>
       <c r="L12">
-        <v>1.049953142835562</v>
+        <v>1.012431378037749</v>
       </c>
       <c r="M12">
-        <v>1.056891187331751</v>
+        <v>1.016699856027516</v>
       </c>
       <c r="N12">
-        <v>1.040979359633935</v>
+        <v>1.01045479577438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032890093953347</v>
+        <v>0.9785729407656119</v>
       </c>
       <c r="D13">
-        <v>1.03472989578446</v>
+        <v>1.002052420132177</v>
       </c>
       <c r="E13">
-        <v>1.046434822602938</v>
+        <v>0.9975312143859862</v>
       </c>
       <c r="F13">
-        <v>1.053401809037501</v>
+        <v>1.001900532894522</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034003037148226</v>
+        <v>1.037602591880579</v>
       </c>
       <c r="J13">
-        <v>1.03954064582609</v>
+        <v>1.009216601553162</v>
       </c>
       <c r="K13">
-        <v>1.038337098302719</v>
+        <v>1.017096502225735</v>
       </c>
       <c r="L13">
-        <v>1.049998599380058</v>
+        <v>1.012661672303026</v>
       </c>
       <c r="M13">
-        <v>1.056940244141624</v>
+        <v>1.01694750018482</v>
       </c>
       <c r="N13">
-        <v>1.041016912780142</v>
+        <v>1.01064980488613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033074230342627</v>
+        <v>0.9795674591891514</v>
       </c>
       <c r="D14">
-        <v>1.034860922286928</v>
+        <v>1.002741133228654</v>
       </c>
       <c r="E14">
-        <v>1.046615674436754</v>
+        <v>0.99844558659839</v>
       </c>
       <c r="F14">
-        <v>1.053594254630492</v>
+        <v>1.002871530518594</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034035894625743</v>
+        <v>1.037846382780209</v>
       </c>
       <c r="J14">
-        <v>1.03966350834463</v>
+        <v>1.009852580689279</v>
       </c>
       <c r="K14">
-        <v>1.038435979252203</v>
+        <v>1.017628441540799</v>
       </c>
       <c r="L14">
-        <v>1.050147542559754</v>
+        <v>1.013413883967154</v>
       </c>
       <c r="M14">
-        <v>1.057100985582407</v>
+        <v>1.017756394461722</v>
       </c>
       <c r="N14">
-        <v>1.041139949777551</v>
+        <v>1.011286687185567</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033187689699567</v>
+        <v>0.980177784382784</v>
       </c>
       <c r="D15">
-        <v>1.034941653012655</v>
+        <v>1.003163920562924</v>
       </c>
       <c r="E15">
-        <v>1.04672711901607</v>
+        <v>0.9990069141957062</v>
       </c>
       <c r="F15">
-        <v>1.053712843481851</v>
+        <v>1.003467608436739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034056107424332</v>
+        <v>1.037995767766484</v>
       </c>
       <c r="J15">
-        <v>1.039739201365049</v>
+        <v>1.010242851465181</v>
       </c>
       <c r="K15">
-        <v>1.038496887696041</v>
+        <v>1.017954818324891</v>
       </c>
       <c r="L15">
-        <v>1.050239312466102</v>
+        <v>1.013875551081103</v>
       </c>
       <c r="M15">
-        <v>1.05720002610709</v>
+        <v>1.018252859938288</v>
       </c>
       <c r="N15">
-        <v>1.041215750290741</v>
+        <v>1.011677512190736</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033848177001677</v>
+        <v>0.9836938808944863</v>
       </c>
       <c r="D16">
-        <v>1.035411555085265</v>
+        <v>1.005601516993708</v>
       </c>
       <c r="E16">
-        <v>1.047376015675377</v>
+        <v>1.00224352075247</v>
       </c>
       <c r="F16">
-        <v>1.054403337839825</v>
+        <v>1.006904414371216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034173269266773</v>
+        <v>1.038852891823788</v>
       </c>
       <c r="J16">
-        <v>1.040179666065844</v>
+        <v>1.012490819469413</v>
       </c>
       <c r="K16">
-        <v>1.038851166173483</v>
+        <v>1.019833982769331</v>
       </c>
       <c r="L16">
-        <v>1.050773469622367</v>
+        <v>1.016535826525718</v>
       </c>
       <c r="M16">
-        <v>1.057776521582771</v>
+        <v>1.021113801710689</v>
       </c>
       <c r="N16">
-        <v>1.041656840501933</v>
+        <v>1.01392867256738</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034262575784046</v>
+        <v>0.9858683936859765</v>
       </c>
       <c r="D17">
-        <v>1.035706324347639</v>
+        <v>1.00711062327109</v>
       </c>
       <c r="E17">
-        <v>1.047783263558617</v>
+        <v>1.004247574705675</v>
       </c>
       <c r="F17">
-        <v>1.054836692102062</v>
+        <v>1.009032285920757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034246334114068</v>
+        <v>1.039379866162009</v>
       </c>
       <c r="J17">
-        <v>1.040455868503853</v>
+        <v>1.013880673621972</v>
       </c>
       <c r="K17">
-        <v>1.039073188450043</v>
+        <v>1.020995115681364</v>
       </c>
       <c r="L17">
-        <v>1.051108546824596</v>
+        <v>1.018181536191775</v>
       </c>
       <c r="M17">
-        <v>1.058138174287472</v>
+        <v>1.022883778418263</v>
       </c>
       <c r="N17">
-        <v>1.041933435179084</v>
+        <v>1.015320500472254</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034504321028451</v>
+        <v>0.9871259057505848</v>
       </c>
       <c r="D18">
-        <v>1.035878262420985</v>
+        <v>1.007983870293434</v>
       </c>
       <c r="E18">
-        <v>1.048020880756945</v>
+        <v>1.005407350677886</v>
       </c>
       <c r="F18">
-        <v>1.055089541511808</v>
+        <v>1.01026366836031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034288797402249</v>
+        <v>1.039683474117552</v>
       </c>
       <c r="J18">
-        <v>1.040616940430933</v>
+        <v>1.014684261479929</v>
       </c>
       <c r="K18">
-        <v>1.039202615484162</v>
+        <v>1.021666200251219</v>
       </c>
       <c r="L18">
-        <v>1.051303996874296</v>
+        <v>1.019133394452312</v>
       </c>
       <c r="M18">
-        <v>1.058349131798872</v>
+        <v>1.023907558503815</v>
       </c>
       <c r="N18">
-        <v>1.042094735846776</v>
+        <v>1.016125229517143</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034586755591338</v>
+        <v>0.9875528768530302</v>
       </c>
       <c r="D19">
-        <v>1.035936889544366</v>
+        <v>1.008280457346612</v>
       </c>
       <c r="E19">
-        <v>1.048101915033912</v>
+        <v>1.005801277323977</v>
       </c>
       <c r="F19">
-        <v>1.055175770396637</v>
+        <v>1.010681908683917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034303250124289</v>
+        <v>1.03978636498028</v>
       </c>
       <c r="J19">
-        <v>1.040671856315089</v>
+        <v>1.014957080063922</v>
       </c>
       <c r="K19">
-        <v>1.039246734059477</v>
+        <v>1.021893988811576</v>
       </c>
       <c r="L19">
-        <v>1.051370641165417</v>
+        <v>1.019456608712463</v>
       </c>
       <c r="M19">
-        <v>1.058421064823542</v>
+        <v>1.024255202702451</v>
       </c>
       <c r="N19">
-        <v>1.042149729717787</v>
+        <v>1.016398435534816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03421811125904</v>
+        <v>0.9856362182645636</v>
       </c>
       <c r="D20">
-        <v>1.035674697961373</v>
+        <v>1.00694943765185</v>
       </c>
       <c r="E20">
-        <v>1.047739561811265</v>
+        <v>1.004033511797359</v>
       </c>
       <c r="F20">
-        <v>1.054790188891261</v>
+        <v>1.008805002547777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034238510895551</v>
+        <v>1.039323718240051</v>
       </c>
       <c r="J20">
-        <v>1.04042623793404</v>
+        <v>1.013732293287597</v>
       </c>
       <c r="K20">
-        <v>1.039049375295646</v>
+        <v>1.020871180428762</v>
       </c>
       <c r="L20">
-        <v>1.051072595674239</v>
+        <v>1.018005805625161</v>
       </c>
       <c r="M20">
-        <v>1.058099371173259</v>
+        <v>1.022694773592474</v>
       </c>
       <c r="N20">
-        <v>1.041903762530464</v>
+        <v>1.015171909420784</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03302000533891</v>
+        <v>0.979275106693078</v>
       </c>
       <c r="D21">
-        <v>1.034822338043782</v>
+        <v>1.002538648784022</v>
       </c>
       <c r="E21">
-        <v>1.046562414788373</v>
+        <v>0.998176754975123</v>
       </c>
       <c r="F21">
-        <v>1.053537580706183</v>
+        <v>1.002586053094517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034026225537219</v>
+        <v>1.03777476429768</v>
       </c>
       <c r="J21">
-        <v>1.039627329776544</v>
+        <v>1.009665630428063</v>
       </c>
       <c r="K21">
-        <v>1.038406864478971</v>
+        <v>1.017472084773205</v>
       </c>
       <c r="L21">
-        <v>1.050103682276709</v>
+        <v>1.013192751817636</v>
       </c>
       <c r="M21">
-        <v>1.057053650730534</v>
+        <v>1.017518596981068</v>
       </c>
       <c r="N21">
-        <v>1.041103719831748</v>
+        <v>1.011099471433537</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032267007925574</v>
+        <v>0.97517037952842</v>
       </c>
       <c r="D22">
-        <v>1.034286467484786</v>
+        <v>0.9996981637119067</v>
       </c>
       <c r="E22">
-        <v>1.045822985261584</v>
+        <v>0.9944057079216639</v>
       </c>
       <c r="F22">
-        <v>1.052750748371074</v>
+        <v>0.9985812886530487</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033891365635269</v>
+        <v>1.036765162973802</v>
       </c>
       <c r="J22">
-        <v>1.039124734798831</v>
+        <v>1.007040421139455</v>
       </c>
       <c r="K22">
-        <v>1.038002220937599</v>
+        <v>1.015275602410432</v>
       </c>
       <c r="L22">
-        <v>1.04949453576515</v>
+        <v>1.010088809460495</v>
       </c>
       <c r="M22">
-        <v>1.056396270248946</v>
+        <v>1.014180902980204</v>
       </c>
       <c r="N22">
-        <v>1.040600411111518</v>
+        <v>1.008470534046624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032666157823615</v>
+        <v>0.9773567330193275</v>
       </c>
       <c r="D23">
-        <v>1.034570538409468</v>
+        <v>1.001210550238488</v>
       </c>
       <c r="E23">
-        <v>1.046214905423532</v>
+        <v>0.9964135312344577</v>
       </c>
       <c r="F23">
-        <v>1.053167793649846</v>
+        <v>1.000713601346592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033962988882182</v>
+        <v>1.037303846992095</v>
       </c>
       <c r="J23">
-        <v>1.039391197312708</v>
+        <v>1.008438798435847</v>
       </c>
       <c r="K23">
-        <v>1.038216793667447</v>
+        <v>1.016445807532919</v>
       </c>
       <c r="L23">
-        <v>1.049817451273433</v>
+        <v>1.011741905634511</v>
       </c>
       <c r="M23">
-        <v>1.056744750039577</v>
+        <v>1.015958450834427</v>
       </c>
       <c r="N23">
-        <v>1.040867252032729</v>
+        <v>1.009870897199172</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034238202760407</v>
+        <v>0.9857411617769012</v>
       </c>
       <c r="D24">
-        <v>1.035688988551166</v>
+        <v>1.007022292048847</v>
       </c>
       <c r="E24">
-        <v>1.047759308513616</v>
+        <v>1.004130265837549</v>
       </c>
       <c r="F24">
-        <v>1.054811201439493</v>
+        <v>1.008907732240236</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034242046347694</v>
+        <v>1.03934910069242</v>
       </c>
       <c r="J24">
-        <v>1.040439626812772</v>
+        <v>1.013799361838909</v>
       </c>
       <c r="K24">
-        <v>1.039060135666185</v>
+        <v>1.02092720050905</v>
       </c>
       <c r="L24">
-        <v>1.051088840435465</v>
+        <v>1.018085235545923</v>
       </c>
       <c r="M24">
-        <v>1.058116904594338</v>
+        <v>1.022780203309285</v>
       </c>
       <c r="N24">
-        <v>1.041917170422939</v>
+        <v>1.015239073217132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036063786371205</v>
+        <v>0.9950485555443559</v>
       </c>
       <c r="D25">
-        <v>1.036987047997426</v>
+        <v>1.01349412524246</v>
       </c>
       <c r="E25">
-        <v>1.049554498541121</v>
+        <v>1.012728576808984</v>
       </c>
       <c r="F25">
-        <v>1.056721469627842</v>
+        <v>1.018036130306188</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03455982717472</v>
+        <v>1.041575463028771</v>
       </c>
       <c r="J25">
-        <v>1.041655003876937</v>
+        <v>1.019743712332198</v>
       </c>
       <c r="K25">
-        <v>1.040035851393672</v>
+        <v>1.025886512563252</v>
       </c>
       <c r="L25">
-        <v>1.052564419619012</v>
+        <v>1.025132459936524</v>
       </c>
       <c r="M25">
-        <v>1.059709668369984</v>
+        <v>1.030360764907344</v>
       </c>
       <c r="N25">
-        <v>1.043134273461941</v>
+        <v>1.021191865369949</v>
       </c>
     </row>
   </sheetData>
